--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Sekolah</t>
+  </si>
+  <si>
+    <t>Program Belajar</t>
+  </si>
+  <si>
+    <t>Proses</t>
   </si>
 </sst>
 </file>
@@ -80,7 +86,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +105,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -164,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,9 +186,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -188,6 +197,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -195,6 +207,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -514,60 +530,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -578,89 +594,131 @@
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B6:B9"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Program Belajar</t>
   </si>
   <si>
-    <t>Proses</t>
+    <t>Kelas</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,12 +105,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -176,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +191,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -207,10 +202,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -544,10 +535,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -558,8 +549,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -568,8 +559,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
@@ -578,8 +569,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -588,10 +579,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -602,8 +593,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
@@ -612,8 +603,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
@@ -622,8 +613,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
@@ -632,10 +623,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -646,8 +637,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
@@ -656,8 +647,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
@@ -666,8 +657,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
@@ -676,22 +667,22 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>13</v>
+      <c r="D14" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
@@ -700,23 +691,61 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>5</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B2:B5"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>No</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>Kelas</t>
+  </si>
+  <si>
+    <t>Gaji</t>
+  </si>
+  <si>
+    <t>R = Menampilkan nama pengajar, gaji ngajar berdasarkan kelas, gaji transport, gaji custom, total Gaji</t>
+  </si>
+  <si>
+    <t>Deteil Gaji</t>
+  </si>
+  <si>
+    <t>R = Menampilkan 3 Tabel dari 1 pengajar, tabel Gaji, tabel Transport, tabel Gaji custom, setiap tabel di lengkapi dengan button verifikasi</t>
   </si>
 </sst>
 </file>
@@ -170,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -202,6 +214,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,10 +550,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -549,8 +564,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -559,8 +574,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
@@ -569,8 +584,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -623,10 +638,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="13">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -637,8 +652,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
@@ -647,8 +662,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
@@ -657,8 +672,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
@@ -667,10 +682,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="13">
         <v>4</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -681,8 +696,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
@@ -691,16 +706,16 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
@@ -742,8 +757,31 @@
       </c>
       <c r="D21" s="8"/>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>6</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A14:A17"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>R = Menampilkan 3 Tabel dari 1 pengajar, tabel Gaji, tabel Transport, tabel Gaji custom, setiap tabel di lengkapi dengan button verifikasi</t>
+  </si>
+  <si>
+    <t>Catatan Maintenance DB</t>
+  </si>
+  <si>
+    <t>pembayaran_kelas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dibuat otomatis, saat menginput siswa, sistem langsung membuat juga tabel tagihan pembayaran secara otomatis, nantinya admin tinggal melakukan validasi pembayaran </t>
+  </si>
+  <si>
+    <t>jadi tidak usah ada fitur tambah pembayaran</t>
   </si>
 </sst>
 </file>
@@ -98,7 +110,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +129,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -182,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,13 +228,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -608,8 +629,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
@@ -618,8 +639,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
@@ -628,8 +649,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
@@ -734,24 +755,24 @@
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
@@ -770,7 +791,7 @@
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
@@ -779,19 +800,40 @@
       </c>
       <c r="D23" s="8"/>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>jadi tidak usah ada fitur tambah pembayaran</t>
+  </si>
+  <si>
+    <t>Pengguna</t>
   </si>
 </sst>
 </file>
@@ -225,19 +228,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -571,10 +574,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -585,8 +588,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -595,8 +598,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
@@ -605,8 +608,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -615,10 +618,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -629,8 +632,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
@@ -639,8 +642,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
@@ -649,8 +652,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
@@ -659,10 +662,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -673,8 +676,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
@@ -683,8 +686,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
@@ -693,8 +696,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
@@ -703,10 +706,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>4</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -717,8 +720,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
@@ -727,26 +730,30 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="12">
         <v>5</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -755,31 +762,31 @@
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="12">
         <v>6</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -791,7 +798,7 @@
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
@@ -800,8 +807,19 @@
       </c>
       <c r="D23" s="8"/>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -823,17 +841,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,10 +237,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -574,10 +577,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -588,8 +591,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -598,8 +601,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
@@ -608,8 +611,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -632,8 +635,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
@@ -642,8 +645,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
@@ -652,8 +655,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
@@ -662,10 +665,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="15">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -676,8 +679,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
@@ -686,8 +689,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
@@ -696,8 +699,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
@@ -706,10 +709,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="15">
         <v>4</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -720,8 +723,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
@@ -730,8 +733,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
@@ -740,8 +743,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
@@ -762,24 +765,24 @@
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
@@ -798,7 +801,7 @@
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
@@ -808,15 +811,16 @@
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="11">
         <v>7</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D24" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
@@ -841,17 +845,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
